--- a/SIRS MODELS/spain/03_31_2020.xlsx
+++ b/SIRS MODELS/spain/03_31_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E62B4B4-EAF5-4DBC-849F-2D4642E85E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3811538D-71A6-42CD-A96C-8E8DAC6F9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8115,8 +8115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8561,7 +8561,7 @@
       <c r="S9" s="188"/>
       <c r="T9" s="189"/>
       <c r="U9" s="97">
-        <f>U8/(U7^U6)</f>
+        <f>(U8/(U7^U6))</f>
         <v>2.5589825388949165E-3</v>
       </c>
     </row>
